--- a/output/StructureDefinition-paymentAccepted.xlsx
+++ b/output/StructureDefinition-paymentAccepted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="119">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-25T10:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -327,13 +327,7 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
+    <t>Extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -355,7 +349,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.extension.value[x]</t>
+    <t>Extension.extension.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -373,12 +367,6 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>Extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.value[x]</t>
   </si>
   <si>
     <t>type</t>
@@ -703,7 +691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -712,42 +700,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.33203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.3515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.1484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.06640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="43.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.671875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="42.26171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="17.4453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1474,7 +1462,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>81</v>
@@ -1489,22 +1477,24 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M8" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>75</v>
@@ -1546,10 +1536,10 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -1561,23 +1551,23 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>75</v>
@@ -1589,17 +1579,15 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>75</v>
@@ -1636,41 +1624,43 @@
         <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="C10" t="s" s="2">
         <v>75</v>
       </c>
@@ -1679,7 +1669,7 @@
         <v>81</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>75</v>
@@ -1691,17 +1681,15 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>75</v>
@@ -1750,27 +1738,27 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1793,13 +1781,13 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1850,7 +1838,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1862,15 +1850,15 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1878,10 +1866,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>75</v>
@@ -1893,24 +1881,22 @@
         <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>75</v>
@@ -1940,39 +1926,39 @@
         <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1980,7 +1966,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>81</v>
@@ -1995,22 +1981,24 @@
         <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>75</v>
@@ -2052,10 +2040,10 @@
         <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2064,19 +2052,17 @@
         <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>119</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
         <v>75</v>
       </c>
@@ -2085,7 +2071,7 @@
         <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>75</v>
@@ -2097,13 +2083,13 @@
         <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2130,13 +2116,11 @@
         <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>75</v>
@@ -2154,27 +2138,27 @@
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2182,7 +2166,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>81</v>
@@ -2197,22 +2181,24 @@
         <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>75</v>
@@ -2254,10 +2240,10 @@
         <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -2269,12 +2255,12 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>86</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2297,13 +2283,13 @@
         <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2342,436 +2328,34 @@
         <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M17" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="X18" s="2"/>
-      <c r="Y18" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
